--- a/Risk/risk_example_calculation.xlsx
+++ b/Risk/risk_example_calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16596" windowHeight="5700" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16596" windowHeight="5700" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="chain history" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fp and allocation" sheetId="6" r:id="rId4"/>
     <sheet name="simulation" sheetId="7" r:id="rId5"/>
     <sheet name="simulation (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="chain_allocation_0e424" localSheetId="1">'chain allocation'!$A$1:$I$22</definedName>
@@ -25,7 +26,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="170">
   <si>
     <t>id</t>
   </si>
@@ -579,6 +580,12 @@
   <si>
     <t>allocation
 step 4</t>
+  </si>
+  <si>
+    <t>risk1</t>
+  </si>
+  <si>
+    <t>risk2</t>
   </si>
 </sst>
 </file>
@@ -806,46 +813,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>8.9913995308835044E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9913995308835044E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1704456606723999E-2</c:v>
+                  <c:v>8.0443500825666425E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86669272869429248</c:v>
+                  <c:v>0.87237556027364949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3291634089132134E-2</c:v>
+                  <c:v>1.4154281670205238E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3291634089132134E-2</c:v>
+                  <c:v>1.4154281670205238E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3455824863174352E-3</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3455824863174352E-3</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3455824863174352E-3</c:v>
+                  <c:v>2.3590469450342059E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,40 +899,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7411523018022219E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89065272200952472</c:v>
+                  <c:v>0.94634473507712946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2326080866560835E-2</c:v>
+                  <c:v>1.6096579476861168E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2326080866560835E-2</c:v>
+                  <c:v>1.6096579476861168E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4278644131104678E-3</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4278644131104678E-3</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4278644131104678E-3</c:v>
+                  <c:v>2.6827632461435278E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,40 +979,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.838755304101844E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97312588401697309</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.3000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.3000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8288543140028285E-3</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8288543140028285E-3</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8288543140028285E-3</c:v>
+                  <c:v>5.0000000000000017E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,7 +1050,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99120621427524547</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1067,13 +1074,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9312619082515023E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9312619082515023E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9312619082515023E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,19 +1359,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.44527872582480105</c:v>
+                  <c:v>5.7337883959044413E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4452111024237686</c:v>
+                  <c:v>5.1663128096249157E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44196470258660947</c:v>
+                  <c:v>4.7317236753856518E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44710042432814717</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.44604279642386052</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,16 +2689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6792,7 +6799,7 @@
   <dimension ref="A1:AY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B3" sqref="B3:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6810,140 +6817,140 @@
       </c>
       <c r="L1">
         <f>SUMPRODUCT(L4:L17,$E$4:$E$17)</f>
-        <v>1.3408602113810534E-3</v>
+        <v>0.24876324462105751</v>
       </c>
       <c r="M1" t="s">
         <v>156</v>
       </c>
       <c r="N1" s="9">
         <f>SUMPRODUCT(N4:N17,$E$4:$E$17)-$L$1</f>
-        <v>-1.9471444493245667E-5</v>
+        <v>-4.9349596044734323E-4</v>
       </c>
       <c r="O1" t="s">
         <v>156</v>
       </c>
       <c r="P1" s="9">
         <f>SUMPRODUCT(P4:P17,$E$4:$E$17)-$L$1</f>
-        <v>-3.8950680680965855E-5</v>
+        <v>-9.9087144971080066E-4</v>
       </c>
       <c r="Q1" t="s">
         <v>156</v>
       </c>
       <c r="R1" s="9">
         <f>SUMPRODUCT(R4:R17,$E$4:$E$17)-$L$1</f>
-        <v>-5.8437711681086184E-5</v>
+        <v>-1.4921569660012179E-3</v>
       </c>
       <c r="S1" t="s">
         <v>156</v>
       </c>
       <c r="T1" s="9">
         <f>SUMPRODUCT(T4:T17,$E$4:$E$17)-$L$1</f>
-        <v>-7.7932540612778677E-5</v>
+        <v>-1.9973832472857944E-3</v>
       </c>
       <c r="U1" t="s">
         <v>156</v>
       </c>
       <c r="V1" s="9">
         <f>SUMPRODUCT(V4:V17,$E$4:$E$17)-$L$1</f>
-        <v>-9.7435170596464572E-5</v>
+        <v>-2.6398807700960258E-3</v>
       </c>
       <c r="W1" t="s">
         <v>156</v>
       </c>
       <c r="X1" s="9">
         <f>SUMPRODUCT(X4:X17,$E$4:$E$17)-$L$1</f>
-        <v>-1.1694560475381433E-4</v>
+        <v>-3.4470468228665618E-3</v>
       </c>
       <c r="Y1" t="s">
         <v>156</v>
       </c>
       <c r="Z1" s="9">
         <f>SUMPRODUCT(Z4:Z17,$E$4:$E$17)-$L$1</f>
-        <v>-1.3646384620774458E-4</v>
+        <v>-3.9148171997226144E-3</v>
       </c>
       <c r="AA1" t="s">
         <v>156</v>
       </c>
       <c r="AB1" s="9">
         <f>SUMPRODUCT(AB4:AB17,$E$4:$E$17)-$L$1</f>
-        <v>-1.5598989808242509E-4</v>
+        <v>-3.9863079390221601E-3</v>
       </c>
       <c r="AC1" t="s">
         <v>156</v>
       </c>
       <c r="AD1" s="9">
         <f t="shared" ref="AD1" si="0">SUMPRODUCT(AD4:AD17,$E$4:$E$17)-$L$1</f>
-        <v>-1.7552376350327419E-4</v>
+        <v>-4.0579563047262734E-3</v>
       </c>
       <c r="AE1" t="s">
         <v>156</v>
       </c>
       <c r="AF1" s="9">
         <f t="shared" ref="AF1" si="1">SUMPRODUCT(AF4:AF17,$E$4:$E$17)-$L$1</f>
-        <v>-1.9506544559696093E-4</v>
+        <v>-4.1297626443775604E-3</v>
       </c>
       <c r="AG1" t="s">
         <v>156</v>
       </c>
       <c r="AH1" s="9">
         <f t="shared" ref="AH1" si="2">SUMPRODUCT(AH4:AH17,$E$4:$E$17)-$L$1</f>
-        <v>-2.1461494749140512E-4</v>
+        <v>-4.2017273062850691E-3</v>
       </c>
       <c r="AI1" t="s">
         <v>156</v>
       </c>
       <c r="AJ1" s="9">
         <f t="shared" ref="AJ1" si="3">SUMPRODUCT(AJ4:AJ17,$E$4:$E$17)-$L$1</f>
-        <v>-2.3417227231577859E-4</v>
+        <v>-4.2738506395256226E-3</v>
       </c>
       <c r="AK1" t="s">
         <v>156</v>
       </c>
       <c r="AL1" s="9">
         <f t="shared" ref="AL1" si="4">SUMPRODUCT(AL4:AL17,$E$4:$E$17)-$L$1</f>
-        <v>-2.5373742320050716E-4</v>
+        <v>-4.3461329939460114E-3</v>
       </c>
       <c r="AM1" t="s">
         <v>156</v>
       </c>
       <c r="AN1" s="9">
         <f t="shared" ref="AN1" si="5">SUMPRODUCT(AN4:AN17,$E$4:$E$17)-$L$1</f>
-        <v>-2.7331040327726588E-4</v>
+        <v>-4.418574720164048E-3</v>
       </c>
       <c r="AO1" t="s">
         <v>156</v>
       </c>
       <c r="AP1" s="9">
         <f t="shared" ref="AP1" si="6">SUMPRODUCT(AP4:AP17,$E$4:$E$17)-$L$1</f>
-        <v>-2.9289121567898464E-4</v>
+        <v>-4.4911761695707597E-3</v>
       </c>
       <c r="AQ1" t="s">
         <v>156</v>
       </c>
       <c r="AR1" s="9">
         <f t="shared" ref="AR1" si="7">SUMPRODUCT(AR4:AR17,$E$4:$E$17)-$L$1</f>
-        <v>-3.1247986353984841E-4</v>
+        <v>-4.5639376943319432E-3</v>
       </c>
       <c r="AS1" t="s">
         <v>156</v>
       </c>
       <c r="AT1" s="9">
         <f t="shared" ref="AT1" si="8">SUMPRODUCT(AT4:AT17,$E$4:$E$17)-$L$1</f>
-        <v>-3.3207634999529419E-4</v>
+        <v>-4.6368596473899404E-3</v>
       </c>
       <c r="AU1" t="s">
         <v>156</v>
       </c>
       <c r="AV1" s="9">
         <f t="shared" ref="AV1" si="9">SUMPRODUCT(AV4:AV17,$E$4:$E$17)-$L$1</f>
-        <v>-3.516806781820145E-4</v>
+        <v>-4.7099423824649989E-3</v>
       </c>
       <c r="AW1" t="s">
         <v>156</v>
       </c>
       <c r="AX1" s="9">
         <f t="shared" ref="AX1" si="10">SUMPRODUCT(AX4:AX17,$E$4:$E$17)-$L$1</f>
-        <v>-3.7129285123795725E-4</v>
+        <v>-4.7831862540576031E-3</v>
       </c>
       <c r="AY1" t="s">
         <v>156</v>
@@ -6954,7 +6961,7 @@
         <v>152</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="s">
         <v>155</v>
@@ -6964,21 +6971,21 @@
       </c>
       <c r="H2" s="8">
         <f>SUM(G4:G17)</f>
-        <v>0.99995000000000001</v>
+        <v>0.99902499999999994</v>
       </c>
       <c r="I2" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J2" s="8">
         <f>SUM(I4:I17)</f>
-        <v>0.99995000000000001</v>
+        <v>0.99902499999999983</v>
       </c>
       <c r="K2" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="L2" s="8">
         <f>SUM(K4:K17)</f>
-        <v>0.9995999999999996</v>
+        <v>0.99220000000000019</v>
       </c>
       <c r="M2" s="2">
         <f>K2</f>
@@ -6986,7 +6993,7 @@
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2" si="11">SUM(M4:M17)</f>
-        <v>0.99960000000000049</v>
+        <v>0.9922000000000003</v>
       </c>
       <c r="O2" s="2">
         <f>M2</f>
@@ -6994,7 +7001,7 @@
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2" si="12">SUM(O4:O17)</f>
-        <v>0.99960000000000016</v>
+        <v>0.99219999999999986</v>
       </c>
       <c r="Q2" s="2">
         <f>O2</f>
@@ -7002,7 +7009,7 @@
       </c>
       <c r="R2" s="8">
         <f t="shared" ref="R2" si="13">SUM(Q4:Q17)</f>
-        <v>0.99960000000000016</v>
+        <v>0.99219999999999964</v>
       </c>
       <c r="S2" s="2">
         <f>Q2</f>
@@ -7010,7 +7017,7 @@
       </c>
       <c r="T2" s="8">
         <f t="shared" ref="T2" si="14">SUM(S4:S17)</f>
-        <v>0.9995999999999996</v>
+        <v>0.99219999999999986</v>
       </c>
       <c r="U2" s="2">
         <f>S2</f>
@@ -7018,7 +7025,7 @@
       </c>
       <c r="V2" s="8">
         <f t="shared" ref="V2" si="15">SUM(U4:U17)</f>
-        <v>0.99959999999999982</v>
+        <v>0.99310512398128603</v>
       </c>
       <c r="W2" s="2">
         <f>U2</f>
@@ -7026,7 +7033,7 @@
       </c>
       <c r="X2" s="8">
         <f t="shared" ref="X2" si="16">SUM(W4:W17)</f>
-        <v>0.9996000000000006</v>
+        <v>0.99420000000000008</v>
       </c>
       <c r="Y2" s="2">
         <f>W2</f>
@@ -7034,7 +7041,7 @@
       </c>
       <c r="Z2" s="8">
         <f t="shared" ref="Z2" si="17">SUM(Y4:Y17)</f>
-        <v>0.99959999999999949</v>
+        <v>0.99586759016175186</v>
       </c>
       <c r="AA2" s="2">
         <f>Y2</f>
@@ -7042,7 +7049,7 @@
       </c>
       <c r="AB2" s="8">
         <f t="shared" ref="AB2:AX2" si="18">SUM(AA4:AA17)</f>
-        <v>0.99960000000000004</v>
+        <v>0.99780000000000002</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" ref="AC2" si="19">AA2</f>
@@ -7050,7 +7057,7 @@
       </c>
       <c r="AD2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99960000000000004</v>
+        <v>0.99780000000000024</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" ref="AE2" si="20">AC2</f>
@@ -7058,7 +7065,7 @@
       </c>
       <c r="AF2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99960000000000027</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" ref="AG2" si="21">AE2</f>
@@ -7066,7 +7073,7 @@
       </c>
       <c r="AH2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99959999999999993</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AI2" s="2">
         <f t="shared" ref="AI2" si="22">AG2</f>
@@ -7074,7 +7081,7 @@
       </c>
       <c r="AJ2" s="8">
         <f t="shared" si="18"/>
-        <v>0.9995999999999996</v>
+        <v>0.9977999999999998</v>
       </c>
       <c r="AK2" s="2">
         <f t="shared" ref="AK2" si="23">AI2</f>
@@ -7082,7 +7089,7 @@
       </c>
       <c r="AL2" s="8">
         <f t="shared" si="18"/>
-        <v>0.9996000000000006</v>
+        <v>0.99780000000000013</v>
       </c>
       <c r="AM2" s="2">
         <f t="shared" ref="AM2" si="24">AK2</f>
@@ -7090,7 +7097,7 @@
       </c>
       <c r="AN2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99960000000000027</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AO2" s="2">
         <f t="shared" ref="AO2" si="25">AM2</f>
@@ -7098,7 +7105,7 @@
       </c>
       <c r="AP2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99959999999999938</v>
+        <v>0.99780000000000002</v>
       </c>
       <c r="AQ2" s="2">
         <f t="shared" ref="AQ2" si="26">AO2</f>
@@ -7106,7 +7113,7 @@
       </c>
       <c r="AR2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99960000000000027</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AS2" s="2">
         <f t="shared" ref="AS2" si="27">AQ2</f>
@@ -7114,7 +7121,7 @@
       </c>
       <c r="AT2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99959999999999993</v>
+        <v>0.99780000000000024</v>
       </c>
       <c r="AU2" s="2">
         <f t="shared" ref="AU2" si="28">AS2</f>
@@ -7122,7 +7129,7 @@
       </c>
       <c r="AV2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99959999999999982</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AW2" s="2">
         <f t="shared" ref="AW2" si="29">AU2</f>
@@ -7130,7 +7137,7 @@
       </c>
       <c r="AX2" s="8">
         <f t="shared" si="18"/>
-        <v>0.99959999999999993</v>
+        <v>0.99779999999999991</v>
       </c>
       <c r="AY2" s="2">
         <f t="shared" ref="AY2" si="30">AW2</f>
@@ -7301,190 +7308,190 @@
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E17" si="31">MAX($D$2-$D4,0)</f>
-        <v>5.0000000000000017E-2</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F4" s="8">
         <v>1.3651877133105802E-2</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G17" si="32">F4-G$2*$E4</f>
-        <v>1.3626877133105801E-2</v>
+        <v>1.3426877133105803E-2</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H17" si="33">G4/H$2</f>
-        <v>1.3627558511031352E-2</v>
+        <v>1.3439981114692629E-2</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" ref="I4:I17" si="34">H4-I$2*$E4</f>
-        <v>1.3602558511031352E-2</v>
+        <v>1.3214981114692629E-2</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:J17" si="35">I4/J$2</f>
-        <v>1.3603238672965E-2</v>
+        <v>1.3227878296031262E-2</v>
       </c>
       <c r="K4" s="8">
         <f>MAX(J4-K$2*$E4,0)</f>
-        <v>1.3403238672964999E-2</v>
+        <v>1.1427878296031263E-2</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L17" si="36">K4/L$2</f>
-        <v>1.3408602113810529E-2</v>
+        <v>1.1517716484611229E-2</v>
       </c>
       <c r="M4" s="8">
         <f>MAX(L4-M$2*$E4,0)</f>
-        <v>1.3208602113810529E-2</v>
+        <v>9.7177164846112291E-3</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" ref="N4:N17" si="37">M4/N$2</f>
-        <v>1.3213887668878073E-2</v>
+        <v>9.7941105468768649E-3</v>
       </c>
       <c r="O4" s="8">
         <f>MAX(N4-O$2*$E4,0)</f>
-        <v>1.3013887668878073E-2</v>
+        <v>7.9941105468768654E-3</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" ref="P4:P17" si="38">O4/P$2</f>
-        <v>1.3019095307000871E-2</v>
+        <v>8.0569547942721895E-3</v>
       </c>
       <c r="Q4" s="8">
         <f>MAX(P4-Q$2*$E4,0)</f>
-        <v>1.281909530700087E-2</v>
+        <v>6.25695479427219E-3</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R17" si="39">Q4/R$2</f>
-        <v>1.2824224996999667E-2</v>
+        <v>6.3061427073898332E-3</v>
       </c>
       <c r="S4" s="8">
         <f>MAX(R4-S$2*$E4,0)</f>
-        <v>1.2624224996999667E-2</v>
+        <v>4.5061427073898336E-3</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T17" si="40">S4/T$2</f>
-        <v>1.2629276707682744E-2</v>
+        <v>4.5415669294394624E-3</v>
       </c>
       <c r="U4" s="8">
         <f>MAX(T4-U$2*$E4,0)</f>
-        <v>1.2429276707682744E-2</v>
+        <v>2.7415669294394624E-3</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V17" si="41">U4/V$2</f>
-        <v>1.2434250407845885E-2</v>
+        <v>2.7606009305930477E-3</v>
       </c>
       <c r="W4" s="8">
         <f>MAX(V4-W$2*$E4,0)</f>
-        <v>1.2234250407845884E-2</v>
+        <v>9.6060093059304776E-4</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" ref="X4:X17" si="42">W4/X$2</f>
-        <v>1.2239146066272386E-2</v>
+        <v>9.6620491912396663E-4</v>
       </c>
       <c r="Y4" s="8">
         <f>MAX(X4-Y$2*$E4,0)</f>
-        <v>1.2039146066272386E-2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" ref="Z4:Z17" si="43">Y4/Z$2</f>
-        <v>1.2043963651733085E-2</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="8">
         <f>MAX(Z4-AA$2*$E4,0)</f>
-        <v>1.1843963651733085E-2</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" ref="AB4:AB17" si="44">AA4/AB$2</f>
-        <v>1.1848703132986279E-2</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" ref="AC4" si="45">MAX(AB4-AC$2*$E4,0)</f>
-        <v>1.1648703132986278E-2</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" ref="AD4" si="46">AC4/AD$2</f>
-        <v>1.1653364478777789E-2</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" ref="AE4" si="47">MAX(AD4-AE$2*$E4,0)</f>
-        <v>1.1453364478777789E-2</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" ref="AF4" si="48">AE4/AF$2</f>
-        <v>1.1457947657840922E-2</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" ref="AG4" si="49">MAX(AF4-AG$2*$E4,0)</f>
-        <v>1.1257947657840921E-2</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" ref="AH4" si="50">AG4/AH$2</f>
-        <v>1.126245263889648E-2</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="8">
         <f t="shared" ref="AI4" si="51">MAX(AH4-AI$2*$E4,0)</f>
-        <v>1.106245263889648E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="8">
         <f t="shared" ref="AJ4" si="52">AI4/AJ$2</f>
-        <v>1.1066879390652744E-2</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="8">
         <f t="shared" ref="AK4" si="53">MAX(AJ4-AK$2*$E4,0)</f>
-        <v>1.0866879390652744E-2</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="8">
         <f t="shared" ref="AL4" si="54">AK4/AL$2</f>
-        <v>1.0871227881805459E-2</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="8">
         <f t="shared" ref="AM4" si="55">MAX(AL4-AM$2*$E4,0)</f>
-        <v>1.0671227881805459E-2</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="8">
         <f t="shared" ref="AN4" si="56">AM4/AN$2</f>
-        <v>1.0675498081037871E-2</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="8">
         <f t="shared" ref="AO4" si="57">MAX(AN4-AO$2*$E4,0)</f>
-        <v>1.0475498081037871E-2</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="8">
         <f t="shared" ref="AP4" si="58">AO4/AP$2</f>
-        <v>1.0479689957020685E-2</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="8">
         <f t="shared" ref="AQ4" si="59">MAX(AP4-AQ$2*$E4,0)</f>
-        <v>1.0279689957020685E-2</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="8">
         <f t="shared" ref="AR4" si="60">AQ4/AR$2</f>
-        <v>1.0283803478412047E-2</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="8">
         <f t="shared" ref="AS4" si="61">MAX(AR4-AS$2*$E4,0)</f>
-        <v>1.0083803478412047E-2</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="8">
         <f t="shared" ref="AT4" si="62">AS4/AT$2</f>
-        <v>1.008783861385759E-2</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="8">
         <f t="shared" ref="AU4" si="63">MAX(AT4-AU$2*$E4,0)</f>
-        <v>9.8878386138575892E-3</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="8">
         <f t="shared" ref="AV4" si="64">AU4/AV$2</f>
-        <v>9.8917953319903867E-3</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="8">
         <f t="shared" ref="AW4" si="65">MAX(AV4-AW$2*$E4,0)</f>
-        <v>9.6917953319903861E-3</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="8">
         <f t="shared" ref="AX4" si="66">AW4/AX$2</f>
-        <v>9.695673601430959E-3</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="8">
         <f t="shared" ref="AY4" si="67">MAX(AX4-AY$2*$E4,0)</f>
-        <v>9.4956736014309585E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
@@ -7502,190 +7509,190 @@
       </c>
       <c r="E5">
         <f t="shared" si="31"/>
-        <v>5.0000000000000017E-2</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F5" s="8">
         <v>1.3651877133105802E-2</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="32"/>
-        <v>1.3626877133105801E-2</v>
+        <v>1.3426877133105803E-2</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="33"/>
-        <v>1.3627558511031352E-2</v>
+        <v>1.3439981114692629E-2</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="34"/>
-        <v>1.3602558511031352E-2</v>
+        <v>1.3214981114692629E-2</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="35"/>
-        <v>1.3603238672965E-2</v>
+        <v>1.3227878296031262E-2</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:M17" si="68">MAX(J5-K$2*$E5,0)</f>
-        <v>1.3403238672964999E-2</v>
+        <v>1.1427878296031263E-2</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="36"/>
-        <v>1.3408602113810529E-2</v>
+        <v>1.1517716484611229E-2</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="68"/>
-        <v>1.3208602113810529E-2</v>
+        <v>9.7177164846112291E-3</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="37"/>
-        <v>1.3213887668878073E-2</v>
+        <v>9.7941105468768649E-3</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" ref="O5" si="69">MAX(N5-O$2*$E5,0)</f>
-        <v>1.3013887668878073E-2</v>
+        <v>7.9941105468768654E-3</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="38"/>
-        <v>1.3019095307000871E-2</v>
+        <v>8.0569547942721895E-3</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" ref="Q5" si="70">MAX(P5-Q$2*$E5,0)</f>
-        <v>1.281909530700087E-2</v>
+        <v>6.25695479427219E-3</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="39"/>
-        <v>1.2824224996999667E-2</v>
+        <v>6.3061427073898332E-3</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" ref="S5" si="71">MAX(R5-S$2*$E5,0)</f>
-        <v>1.2624224996999667E-2</v>
+        <v>4.5061427073898336E-3</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="40"/>
-        <v>1.2629276707682744E-2</v>
+        <v>4.5415669294394624E-3</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5" si="72">MAX(T5-U$2*$E5,0)</f>
-        <v>1.2429276707682744E-2</v>
+        <v>2.7415669294394624E-3</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="41"/>
-        <v>1.2434250407845885E-2</v>
+        <v>2.7606009305930477E-3</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5" si="73">MAX(V5-W$2*$E5,0)</f>
-        <v>1.2234250407845884E-2</v>
+        <v>9.6060093059304776E-4</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="42"/>
-        <v>1.2239146066272386E-2</v>
+        <v>9.6620491912396663E-4</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5" si="74">MAX(X5-Y$2*$E5,0)</f>
-        <v>1.2039146066272386E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" si="43"/>
-        <v>1.2043963651733085E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" ref="AA5:AY5" si="75">MAX(Z5-AA$2*$E5,0)</f>
-        <v>1.1843963651733085E-2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" si="44"/>
-        <v>1.1848703132986279E-2</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" si="75"/>
-        <v>1.1648703132986278E-2</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" ref="AD5" si="76">AC5/AD$2</f>
-        <v>1.1653364478777789E-2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="8">
         <f t="shared" si="75"/>
-        <v>1.1453364478777789E-2</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" ref="AF5" si="77">AE5/AF$2</f>
-        <v>1.1457947657840922E-2</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" si="75"/>
-        <v>1.1257947657840921E-2</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" ref="AH5" si="78">AG5/AH$2</f>
-        <v>1.126245263889648E-2</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" si="75"/>
-        <v>1.106245263889648E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="8">
         <f t="shared" ref="AJ5" si="79">AI5/AJ$2</f>
-        <v>1.1066879390652744E-2</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="8">
         <f t="shared" si="75"/>
-        <v>1.0866879390652744E-2</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="8">
         <f t="shared" ref="AL5" si="80">AK5/AL$2</f>
-        <v>1.0871227881805459E-2</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" si="75"/>
-        <v>1.0671227881805459E-2</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="8">
         <f t="shared" ref="AN5" si="81">AM5/AN$2</f>
-        <v>1.0675498081037871E-2</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="8">
         <f t="shared" si="75"/>
-        <v>1.0475498081037871E-2</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="8">
         <f t="shared" ref="AP5" si="82">AO5/AP$2</f>
-        <v>1.0479689957020685E-2</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="8">
         <f t="shared" si="75"/>
-        <v>1.0279689957020685E-2</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="8">
         <f t="shared" ref="AR5" si="83">AQ5/AR$2</f>
-        <v>1.0283803478412047E-2</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="8">
         <f t="shared" si="75"/>
-        <v>1.0083803478412047E-2</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="8">
         <f t="shared" ref="AT5" si="84">AS5/AT$2</f>
-        <v>1.008783861385759E-2</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="8">
         <f t="shared" si="75"/>
-        <v>9.8878386138575892E-3</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="8">
         <f t="shared" ref="AV5" si="85">AU5/AV$2</f>
-        <v>9.8917953319903867E-3</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="8">
         <f t="shared" si="75"/>
-        <v>9.6917953319903861E-3</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="8">
         <f t="shared" ref="AX5" si="86">AW5/AX$2</f>
-        <v>9.695673601430959E-3</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="8">
         <f t="shared" si="75"/>
-        <v>9.4956736014309585E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
@@ -7703,190 +7710,190 @@
       </c>
       <c r="E6">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="8">
         <v>8.3048919226393625E-2</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="32"/>
-        <v>8.3048919226393625E-2</v>
+        <v>8.2898919226393628E-2</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="33"/>
-        <v>8.3053071879987631E-2</v>
+        <v>8.2979824555335091E-2</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="34"/>
-        <v>8.3053071879987631E-2</v>
+        <v>8.2829824555335094E-2</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="35"/>
-        <v>8.3057224741224692E-2</v>
+        <v>8.2910662451225053E-2</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="68"/>
-        <v>8.3057224741224692E-2</v>
+        <v>8.1710662451225047E-2</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="36"/>
-        <v>8.3090460925594967E-2</v>
+        <v>8.2353015975836552E-2</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="68"/>
-        <v>8.3090460925594967E-2</v>
+        <v>8.1153015975836545E-2</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="37"/>
-        <v>8.3123710409758828E-2</v>
+        <v>8.1790985664015839E-2</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" ref="O6" si="87">MAX(N6-O$2*$E6,0)</f>
-        <v>8.3123710409758828E-2</v>
+        <v>8.0590985664015832E-2</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="38"/>
-        <v>8.3156973199038434E-2</v>
+        <v>8.1224537053029469E-2</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" ref="Q6" si="88">MAX(P6-Q$2*$E6,0)</f>
-        <v>8.3156973199038434E-2</v>
+        <v>8.0024537053029463E-2</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="39"/>
-        <v>8.3190249298757929E-2</v>
+        <v>8.0653635409221422E-2</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6" si="89">MAX(R6-S$2*$E6,0)</f>
-        <v>8.3190249298757929E-2</v>
+        <v>7.9453635409221415E-2</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="40"/>
-        <v>8.3223538714243664E-2</v>
+        <v>8.0078245725883318E-2</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" ref="U6" si="90">MAX(T6-U$2*$E6,0)</f>
-        <v>8.3223538714243664E-2</v>
+        <v>7.8878245725883311E-2</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="41"/>
-        <v>8.3256841450824015E-2</v>
+        <v>7.9425877302562065E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" ref="W6" si="91">MAX(V6-W$2*$E6,0)</f>
-        <v>8.3256841450824015E-2</v>
+        <v>7.8225877302562058E-2</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="42"/>
-        <v>8.3290157513829496E-2</v>
+        <v>7.8682234261277462E-2</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" ref="Y6" si="92">MAX(X6-Y$2*$E6,0)</f>
-        <v>8.3290157513829496E-2</v>
+        <v>7.7482234261277455E-2</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="43"/>
-        <v>8.3323486908592981E-2</v>
+        <v>7.7803751248388911E-2</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" ref="AA6:AY6" si="93">MAX(Z6-AA$2*$E6,0)</f>
-        <v>8.3323486908592981E-2</v>
+        <v>7.6603751248388904E-2</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="44"/>
-        <v>8.3356829640449159E-2</v>
+        <v>7.6772651080766585E-2</v>
       </c>
       <c r="AC6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3356829640449159E-2</v>
+        <v>7.5572651080766579E-2</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" ref="AD6" si="94">AC6/AD$2</f>
-        <v>8.3390185714735054E-2</v>
+        <v>7.57392774912473E-2</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3390185714735054E-2</v>
+        <v>7.4539277491247294E-2</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6" si="95">AE6/AF$2</f>
-        <v>8.3423555136789743E-2</v>
+        <v>7.4703625467275311E-2</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3423555136789743E-2</v>
+        <v>7.3503625467275305E-2</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6" si="96">AG6/AH$2</f>
-        <v>8.3456937911954535E-2</v>
+        <v>7.3665689985242852E-2</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3456937911954535E-2</v>
+        <v>7.2465689985242845E-2</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6" si="97">AI6/AJ$2</f>
-        <v>8.3490334045572795E-2</v>
+        <v>7.2625466010465892E-2</v>
       </c>
       <c r="AK6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3490334045572795E-2</v>
+        <v>7.1425466010465885E-2</v>
       </c>
       <c r="AL6" s="8">
         <f t="shared" ref="AL6" si="98">AK6/AL$2</f>
-        <v>8.3523743542989942E-2</v>
+        <v>7.1582948497159626E-2</v>
       </c>
       <c r="AM6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3523743542989942E-2</v>
+        <v>7.038294849715962E-2</v>
       </c>
       <c r="AN6" s="8">
         <f t="shared" ref="AN6" si="99">AM6/AN$2</f>
-        <v>8.355716640955374E-2</v>
+        <v>7.0538132388414138E-2</v>
       </c>
       <c r="AO6" s="8">
         <f t="shared" si="93"/>
-        <v>8.355716640955374E-2</v>
+        <v>6.9338132388414131E-2</v>
       </c>
       <c r="AP6" s="8">
         <f t="shared" ref="AP6" si="100">AO6/AP$2</f>
-        <v>8.3590602650614035E-2</v>
+        <v>6.9491012616169703E-2</v>
       </c>
       <c r="AQ6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3590602650614035E-2</v>
+        <v>6.8291012616169697E-2</v>
       </c>
       <c r="AR6" s="8">
         <f t="shared" ref="AR6" si="101">AQ6/AR$2</f>
-        <v>8.3624052271522628E-2</v>
+        <v>6.8441584101192332E-2</v>
       </c>
       <c r="AS6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3624052271522628E-2</v>
+        <v>6.7241584101192325E-2</v>
       </c>
       <c r="AT6" s="8">
         <f t="shared" ref="AT6" si="102">AS6/AT$2</f>
-        <v>8.3657515277633682E-2</v>
+        <v>6.7389841753049018E-2</v>
       </c>
       <c r="AU6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3657515277633682E-2</v>
+        <v>6.6189841753049011E-2</v>
       </c>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6" si="103">AU6/AV$2</f>
-        <v>8.3690991674303411E-2</v>
+        <v>6.6335780470083205E-2</v>
       </c>
       <c r="AW6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3690991674303411E-2</v>
+        <v>6.5135780470083199E-2</v>
       </c>
       <c r="AX6" s="8">
         <f t="shared" ref="AX6" si="104">AW6/AX$2</f>
-        <v>8.3724481466890169E-2</v>
+        <v>6.5279395139389865E-2</v>
       </c>
       <c r="AY6" s="8">
         <f t="shared" si="93"/>
-        <v>8.3724481466890169E-2</v>
+        <v>6.4079395139389858E-2</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
@@ -7904,190 +7911,190 @@
       </c>
       <c r="E7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="8">
         <v>0.84414106939704214</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="32"/>
-        <v>0.84414106939704214</v>
+        <v>0.8440160693970421</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="33"/>
-        <v>0.8441832785609702</v>
+        <v>0.84483978819052796</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="34"/>
-        <v>0.8441832785609702</v>
+        <v>0.84471478819052792</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="35"/>
-        <v>0.84422548983546197</v>
+        <v>0.84553918889970525</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="68"/>
-        <v>0.84422548983546197</v>
+        <v>0.84453918889970525</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="36"/>
-        <v>0.84456331516152694</v>
+        <v>0.85117838026577819</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="68"/>
-        <v>0.84456331516152694</v>
+        <v>0.85017838026577819</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="37"/>
-        <v>0.84490127567179529</v>
+        <v>0.85686190311003618</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" ref="O7" si="105">MAX(N7-O$2*$E7,0)</f>
-        <v>0.84490127567179529</v>
+        <v>0.85586190311003618</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="38"/>
-        <v>0.84523937142036332</v>
+        <v>0.86259010593633978</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" ref="Q7" si="106">MAX(P7-Q$2*$E7,0)</f>
-        <v>0.84523937142036332</v>
+        <v>0.86159010593633978</v>
       </c>
       <c r="R7" s="8">
         <f t="shared" si="39"/>
-        <v>0.84557760246134772</v>
+        <v>0.86836333998824844</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" ref="S7" si="107">MAX(R7-S$2*$E7,0)</f>
-        <v>0.84557760246134772</v>
+        <v>0.86736333998824844</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="40"/>
-        <v>0.84591596884888764</v>
+        <v>0.87418195927055897</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" ref="U7" si="108">MAX(T7-U$2*$E7,0)</f>
-        <v>0.84591596884888764</v>
+        <v>0.87318195927055897</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="41"/>
-        <v>0.84625447063714265</v>
+        <v>0.87924423929063644</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" ref="W7" si="109">MAX(V7-W$2*$E7,0)</f>
-        <v>0.84625447063714265</v>
+        <v>0.87824423929063644</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="42"/>
-        <v>0.84659310788029429</v>
+        <v>0.88336777237038455</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" ref="Y7" si="110">MAX(X7-Y$2*$E7,0)</f>
-        <v>0.84659310788029429</v>
+        <v>0.88236777237038455</v>
       </c>
       <c r="Z7" s="8">
         <f t="shared" si="43"/>
-        <v>0.84693188063254776</v>
+        <v>0.88602920818727282</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" ref="AA7:AY7" si="111">MAX(Z7-AA$2*$E7,0)</f>
-        <v>0.84693188063254776</v>
+        <v>0.88502920818727282</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="44"/>
-        <v>0.84727078894812702</v>
+        <v>0.8869805654312215</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84727078894812702</v>
+        <v>0.8859805654312215</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7" si="112">AC7/AD$2</f>
-        <v>0.84760983288127945</v>
+        <v>0.88793402027582813</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84760983288127945</v>
+        <v>0.88693402027582813</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" ref="AF7" si="113">AE7/AF$2</f>
-        <v>0.84794901248627375</v>
+        <v>0.88888957734598939</v>
       </c>
       <c r="AG7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84794901248627375</v>
+        <v>0.88788957734598939</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" ref="AH7" si="114">AG7/AH$2</f>
-        <v>0.84828832781740071</v>
+        <v>0.88984724127679837</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84828832781740071</v>
+        <v>0.88884724127679837</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" ref="AJ7" si="115">AI7/AJ$2</f>
-        <v>0.84862777892897268</v>
+        <v>0.89080701671356843</v>
       </c>
       <c r="AK7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84862777892897268</v>
+        <v>0.88980701671356843</v>
       </c>
       <c r="AL7" s="8">
         <f t="shared" ref="AL7" si="116">AK7/AL$2</f>
-        <v>0.84896736587532229</v>
+        <v>0.8917689083118544</v>
       </c>
       <c r="AM7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84896736587532229</v>
+        <v>0.8907689083118544</v>
       </c>
       <c r="AN7" s="8">
         <f t="shared" ref="AN7" si="117">AM7/AN$2</f>
-        <v>0.8493070887108064</v>
+        <v>0.8927329207374769</v>
       </c>
       <c r="AO7" s="8">
         <f t="shared" si="111"/>
-        <v>0.8493070887108064</v>
+        <v>0.8917329207374769</v>
       </c>
       <c r="AP7" s="8">
         <f t="shared" ref="AP7" si="118">AO7/AP$2</f>
-        <v>0.84964694748980285</v>
+        <v>0.89369905866654331</v>
       </c>
       <c r="AQ7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84964694748980285</v>
+        <v>0.89269905866654331</v>
       </c>
       <c r="AR7" s="8">
         <f t="shared" ref="AR7" si="119">AQ7/AR$2</f>
-        <v>0.84998694226670934</v>
+        <v>0.89466732678547145</v>
       </c>
       <c r="AS7" s="8">
         <f t="shared" si="111"/>
-        <v>0.84998694226670934</v>
+        <v>0.89366732678547145</v>
       </c>
       <c r="AT7" s="8">
         <f t="shared" ref="AT7" si="120">AS7/AT$2</f>
-        <v>0.85032707309594779</v>
+        <v>0.89563772979101142</v>
       </c>
       <c r="AU7" s="8">
         <f t="shared" si="111"/>
-        <v>0.85032707309594779</v>
+        <v>0.89463772979101142</v>
       </c>
       <c r="AV7" s="8">
         <f t="shared" ref="AV7" si="121">AU7/AV$2</f>
-        <v>0.85066734003196076</v>
+        <v>0.89661027239027014</v>
       </c>
       <c r="AW7" s="8">
         <f t="shared" si="111"/>
-        <v>0.85066734003196076</v>
+        <v>0.89561027239027013</v>
       </c>
       <c r="AX7" s="8">
         <f t="shared" ref="AX7" si="122">AW7/AX$2</f>
-        <v>0.85100774312921246</v>
+        <v>0.89758495930073179</v>
       </c>
       <c r="AY7" s="8">
         <f t="shared" si="111"/>
-        <v>0.85100774312921246</v>
+        <v>0.89658495930073179</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
@@ -8105,190 +8112,190 @@
       </c>
       <c r="E8">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F8" s="8">
         <v>2.2753128555176336E-3</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="32"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.2253128555176334E-3</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.2274846530543615E-3</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.1774846530543614E-3</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.1796097725826297E-3</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>1.7796097725826297E-3</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.7935998514237346E-3</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.3935998514237346E-3</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>1.4045553834143663E-3</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" ref="O8" si="123">MAX(N8-O$2*$E8,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>1.0045553834143663E-3</v>
       </c>
       <c r="P8" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>1.0124525130158905E-3</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" ref="Q8" si="124">MAX(P8-Q$2*$E8,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>6.1245251301589049E-4</v>
       </c>
       <c r="R8" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>6.1726719715368954E-4</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" ref="S8" si="125">MAX(R8-S$2*$E8,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.1726719715368963E-4</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.1897520374288416E-4</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" ref="U8" si="126">MAX(T8-U$2*$E8,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" ref="W8" si="127">MAX(V8-W$2*$E8,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" ref="Y8" si="128">MAX(X8-Y$2*$E8,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="8">
         <f t="shared" ref="AA8:AY8" si="129">MAX(Z8-AA$2*$E8,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" ref="AD8" si="130">AC8/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" ref="AF8" si="131">AE8/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" ref="AH8" si="132">AG8/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" ref="AJ8" si="133">AI8/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="8">
         <f t="shared" ref="AL8" si="134">AK8/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="8">
         <f t="shared" ref="AN8" si="135">AM8/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="8">
         <f t="shared" ref="AP8" si="136">AO8/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="8">
         <f t="shared" ref="AR8" si="137">AQ8/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="8">
         <f t="shared" ref="AT8" si="138">AS8/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="8">
         <f t="shared" si="129"/>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="8">
         <f t="shared" ref="AV8" si="139">AU8/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="8">
         <f t="shared" ref="AX8" si="140">AW8/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="8">
         <f t="shared" si="129"/>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
@@ -8306,190 +8313,190 @@
       </c>
       <c r="E9">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F9" s="8">
         <v>2.2753128555176336E-3</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="32"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.2253128555176334E-3</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.2274846530543615E-3</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.1774846530543614E-3</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.1796097725826297E-3</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>1.7796097725826297E-3</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.7935998514237346E-3</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.3935998514237346E-3</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>1.4045553834143663E-3</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9" si="141">MAX(N9-O$2*$E9,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>1.0045553834143663E-3</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>1.0124525130158905E-3</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" ref="Q9" si="142">MAX(P9-Q$2*$E9,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>6.1245251301589049E-4</v>
       </c>
       <c r="R9" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>6.1726719715368954E-4</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" ref="S9" si="143">MAX(R9-S$2*$E9,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.1726719715368963E-4</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.1897520374288416E-4</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" ref="U9" si="144">MAX(T9-U$2*$E9,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>0</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" ref="W9" si="145">MAX(V9-W$2*$E9,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9" si="146">MAX(X9-Y$2*$E9,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AY9" si="147">MAX(Z9-AA$2*$E9,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9" si="148">AC9/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" ref="AF9" si="149">AE9/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" ref="AH9" si="150">AG9/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" ref="AJ9" si="151">AI9/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="8">
         <f t="shared" ref="AL9" si="152">AK9/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="8">
         <f t="shared" ref="AN9" si="153">AM9/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="8">
         <f t="shared" ref="AP9" si="154">AO9/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="8">
         <f t="shared" ref="AR9" si="155">AQ9/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="8">
         <f t="shared" ref="AT9" si="156">AS9/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="8">
         <f t="shared" si="147"/>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="8">
         <f t="shared" ref="AV9" si="157">AU9/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="8">
         <f t="shared" ref="AX9" si="158">AW9/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="8">
         <f t="shared" si="147"/>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
@@ -8507,190 +8514,190 @@
       </c>
       <c r="E10">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F10" s="8">
         <v>2.2753128555176336E-3</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="32"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.2253128555176334E-3</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.2274846530543615E-3</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.1774846530543614E-3</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.1796097725826297E-3</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>1.7796097725826297E-3</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.7935998514237346E-3</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.3935998514237346E-3</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>1.4045553834143663E-3</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ref="O10" si="159">MAX(N10-O$2*$E10,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>1.0045553834143663E-3</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>1.0124525130158905E-3</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" ref="Q10" si="160">MAX(P10-Q$2*$E10,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>6.1245251301589049E-4</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>6.1726719715368954E-4</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" ref="S10" si="161">MAX(R10-S$2*$E10,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.1726719715368963E-4</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.1897520374288416E-4</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" ref="U10" si="162">MAX(T10-U$2*$E10,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" ref="W10" si="163">MAX(V10-W$2*$E10,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" ref="Y10" si="164">MAX(X10-Y$2*$E10,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ref="AA10:AY10" si="165">MAX(Z10-AA$2*$E10,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ref="AD10" si="166">AC10/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" ref="AF10" si="167">AE10/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" ref="AH10" si="168">AG10/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" ref="AJ10" si="169">AI10/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="8">
         <f t="shared" ref="AL10" si="170">AK10/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="8">
         <f t="shared" ref="AN10" si="171">AM10/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="8">
         <f t="shared" ref="AP10" si="172">AO10/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="8">
         <f t="shared" ref="AR10" si="173">AQ10/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="8">
         <f t="shared" ref="AT10" si="174">AS10/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="8">
         <f t="shared" si="165"/>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="8">
         <f t="shared" ref="AV10" si="175">AU10/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="8">
         <f t="shared" ref="AX10" si="176">AW10/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="8">
         <f t="shared" si="165"/>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
@@ -8708,190 +8715,190 @@
       </c>
       <c r="E11">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F11" s="8">
         <v>2.2753128555176336E-3</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="32"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.2253128555176334E-3</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.2274846530543615E-3</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.1774846530543614E-3</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.1796097725826297E-3</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>1.7796097725826297E-3</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.7935998514237346E-3</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.3935998514237346E-3</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>1.4045553834143663E-3</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ref="O11" si="177">MAX(N11-O$2*$E11,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>1.0045553834143663E-3</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>1.0124525130158905E-3</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" ref="Q11" si="178">MAX(P11-Q$2*$E11,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>6.1245251301589049E-4</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>6.1726719715368954E-4</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" ref="S11" si="179">MAX(R11-S$2*$E11,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.1726719715368963E-4</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.1897520374288416E-4</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" ref="U11" si="180">MAX(T11-U$2*$E11,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>0</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" ref="W11" si="181">MAX(V11-W$2*$E11,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" ref="Y11" si="182">MAX(X11-Y$2*$E11,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ref="AA11:AY11" si="183">MAX(Z11-AA$2*$E11,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ref="AD11" si="184">AC11/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" ref="AF11" si="185">AE11/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" ref="AH11" si="186">AG11/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" ref="AJ11" si="187">AI11/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" ref="AL11" si="188">AK11/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="8">
         <f t="shared" ref="AN11" si="189">AM11/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" ref="AP11" si="190">AO11/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" ref="AR11" si="191">AQ11/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="8">
         <f t="shared" ref="AT11" si="192">AS11/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="8">
         <f t="shared" si="183"/>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="8">
         <f t="shared" ref="AV11" si="193">AU11/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="8">
         <f t="shared" ref="AX11" si="194">AW11/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="8">
         <f t="shared" si="183"/>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
@@ -8909,190 +8916,190 @@
       </c>
       <c r="E12">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F12" s="8">
         <v>2.2753128555176336E-3</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="32"/>
-        <v>2.2753128555176336E-3</v>
+        <v>2.2253128555176334E-3</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.2274846530543615E-3</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.1774846530543614E-3</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.1796097725826297E-3</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>1.7796097725826297E-3</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.7935998514237346E-3</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>1.3935998514237346E-3</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>1.4045553834143663E-3</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ref="O12" si="195">MAX(N12-O$2*$E12,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>1.0045553834143663E-3</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>1.0124525130158905E-3</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" ref="Q12" si="196">MAX(P12-Q$2*$E12,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>6.1245251301589049E-4</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>6.1726719715368954E-4</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" ref="S12" si="197">MAX(R12-S$2*$E12,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.1726719715368963E-4</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.1897520374288416E-4</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" ref="U12" si="198">MAX(T12-U$2*$E12,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>0</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" ref="W12" si="199">MAX(V12-W$2*$E12,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>0</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" ref="Y12" si="200">MAX(X12-Y$2*$E12,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ref="AA12:AY12" si="201">MAX(Z12-AA$2*$E12,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2837487572725788E-3</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ref="AD12" si="202">AC12/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2846626223215075E-3</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" ref="AF12" si="203">AE12/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2855768530627321E-3</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" ref="AH12" si="204">AG12/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2864914496425891E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" ref="AJ12" si="205">AI12/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2874064122074731E-3</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="8">
         <f t="shared" ref="AL12" si="206">AK12/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2883217409038334E-3</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="8">
         <f t="shared" ref="AN12" si="207">AM12/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2892374358781842E-3</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="8">
         <f t="shared" ref="AP12" si="208">AO12/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2901534972770963E-3</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="8">
         <f t="shared" ref="AR12" si="209">AQ12/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2910699252471946E-3</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="8">
         <f t="shared" ref="AT12" si="210">AS12/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="8">
         <f t="shared" si="201"/>
-        <v>2.291986719935169E-3</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="8">
         <f t="shared" ref="AV12" si="211">AU12/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2929038814877645E-3</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="8">
         <f t="shared" ref="AX12" si="212">AW12/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="8">
         <f t="shared" si="201"/>
-        <v>2.2938214100517852E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
@@ -9121,179 +9128,179 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" si="33"/>
-        <v>1.3652559761093856E-2</v>
+        <v>1.3665200703792001E-2</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="34"/>
-        <v>1.3652559761093856E-2</v>
+        <v>1.3665200703792001E-2</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" si="35"/>
-        <v>1.3653242423215016E-2</v>
+        <v>1.36785372776377E-2</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="68"/>
-        <v>1.3653242423215016E-2</v>
+        <v>1.36785372776377E-2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="36"/>
-        <v>1.3658705905577252E-2</v>
+        <v>1.3786068612817675E-2</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="68"/>
-        <v>1.3658705905577252E-2</v>
+        <v>1.3786068612817675E-2</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="37"/>
-        <v>1.3664171574206928E-2</v>
+        <v>1.3894445286048851E-2</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ref="O13" si="213">MAX(N13-O$2*$E13,0)</f>
-        <v>1.3664171574206928E-2</v>
+        <v>1.3894445286048851E-2</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="38"/>
-        <v>1.3669639429978918E-2</v>
+        <v>1.4003673942802714E-2</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" ref="Q13" si="214">MAX(P13-Q$2*$E13,0)</f>
-        <v>1.3669639429978918E-2</v>
+        <v>1.4003673942802714E-2</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="39"/>
-        <v>1.3675109473768423E-2</v>
+        <v>1.4113761280792904E-2</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" ref="S13" si="215">MAX(R13-S$2*$E13,0)</f>
-        <v>1.3675109473768423E-2</v>
+        <v>1.4113761280792904E-2</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="40"/>
-        <v>1.3680581706451009E-2</v>
+        <v>1.4224714050385915E-2</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" ref="U13" si="216">MAX(T13-U$2*$E13,0)</f>
-        <v>1.3680581706451009E-2</v>
+        <v>1.4224714050385915E-2</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="41"/>
-        <v>1.3686056128902573E-2</v>
+        <v>1.4323472618246166E-2</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" ref="W13" si="217">MAX(V13-W$2*$E13,0)</f>
-        <v>1.3686056128902573E-2</v>
+        <v>1.4323472618246166E-2</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="42"/>
-        <v>1.3691532741999364E-2</v>
+        <v>1.4407033412035974E-2</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" ref="Y13" si="218">MAX(X13-Y$2*$E13,0)</f>
-        <v>1.3691532741999364E-2</v>
+        <v>1.4407033412035974E-2</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" si="43"/>
-        <v>1.3697011546618018E-2</v>
+        <v>1.446681622573533E-2</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ref="AA13:AY13" si="219">MAX(Z13-AA$2*$E13,0)</f>
-        <v>1.3697011546618018E-2</v>
+        <v>1.446681622573533E-2</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="44"/>
-        <v>1.3702492543635472E-2</v>
+        <v>1.449871339520478E-2</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3702492543635472E-2</v>
+        <v>1.449871339520478E-2</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ref="AD13" si="220">AC13/AD$2</f>
-        <v>1.3707975733929043E-2</v>
+        <v>1.4530680893169751E-2</v>
       </c>
       <c r="AE13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3707975733929043E-2</v>
+        <v>1.4530680893169751E-2</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" ref="AF13" si="221">AE13/AF$2</f>
-        <v>1.371346111837639E-2</v>
+        <v>1.4562718874694078E-2</v>
       </c>
       <c r="AG13" s="8">
         <f t="shared" si="219"/>
-        <v>1.371346111837639E-2</v>
+        <v>1.4562718874694078E-2</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" ref="AH13" si="222">AG13/AH$2</f>
-        <v>1.3718948697855534E-2</v>
+        <v>1.4594827495183484E-2</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3718948697855534E-2</v>
+        <v>1.4594827495183484E-2</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" ref="AJ13" si="223">AI13/AJ$2</f>
-        <v>1.3724438473244838E-2</v>
+        <v>1.4627006910386337E-2</v>
       </c>
       <c r="AK13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3724438473244838E-2</v>
+        <v>1.4627006910386337E-2</v>
       </c>
       <c r="AL13" s="8">
         <f t="shared" ref="AL13" si="224">AK13/AL$2</f>
-        <v>1.3729930445422998E-2</v>
+        <v>1.4659257276394402E-2</v>
       </c>
       <c r="AM13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3729930445422998E-2</v>
+        <v>1.4659257276394402E-2</v>
       </c>
       <c r="AN13" s="8">
         <f t="shared" ref="AN13" si="225">AM13/AN$2</f>
-        <v>1.3735424615269103E-2</v>
+        <v>1.469157874964362E-2</v>
       </c>
       <c r="AO13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3735424615269103E-2</v>
+        <v>1.469157874964362E-2</v>
       </c>
       <c r="AP13" s="8">
         <f t="shared" ref="AP13" si="226">AO13/AP$2</f>
-        <v>1.3740920983662577E-2</v>
+        <v>1.4723971486914832E-2</v>
       </c>
       <c r="AQ13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3740920983662577E-2</v>
+        <v>1.4723971486914832E-2</v>
       </c>
       <c r="AR13" s="8">
         <f t="shared" ref="AR13" si="227">AQ13/AR$2</f>
-        <v>1.3746419551483166E-2</v>
+        <v>1.4756435645334569E-2</v>
       </c>
       <c r="AS13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3746419551483166E-2</v>
+        <v>1.4756435645334569E-2</v>
       </c>
       <c r="AT13" s="8">
         <f t="shared" ref="AT13" si="228">AS13/AT$2</f>
-        <v>1.375192031961101E-2</v>
+        <v>1.4788971382375792E-2</v>
       </c>
       <c r="AU13" s="8">
         <f t="shared" si="219"/>
-        <v>1.375192031961101E-2</v>
+        <v>1.4788971382375792E-2</v>
       </c>
       <c r="AV13" s="8">
         <f t="shared" ref="AV13" si="229">AU13/AV$2</f>
-        <v>1.3757423288926584E-2</v>
+        <v>1.4821578855858683E-2</v>
       </c>
       <c r="AW13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3757423288926584E-2</v>
+        <v>1.4821578855858683E-2</v>
       </c>
       <c r="AX13" s="8">
         <f t="shared" ref="AX13" si="230">AW13/AX$2</f>
-        <v>1.3762928460310709E-2</v>
+        <v>1.4854258223951377E-2</v>
       </c>
       <c r="AY13" s="8">
         <f t="shared" si="219"/>
-        <v>1.3762928460310709E-2</v>
+        <v>1.4854258223951377E-2</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
@@ -9322,179 +9329,179 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" si="33"/>
-        <v>1.3652559761093856E-2</v>
+        <v>1.3665200703792001E-2</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="34"/>
-        <v>1.3652559761093856E-2</v>
+        <v>1.3665200703792001E-2</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="35"/>
-        <v>1.3653242423215016E-2</v>
+        <v>1.36785372776377E-2</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="68"/>
-        <v>1.3653242423215016E-2</v>
+        <v>1.36785372776377E-2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="36"/>
-        <v>1.3658705905577252E-2</v>
+        <v>1.3786068612817675E-2</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="68"/>
-        <v>1.3658705905577252E-2</v>
+        <v>1.3786068612817675E-2</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="37"/>
-        <v>1.3664171574206928E-2</v>
+        <v>1.3894445286048851E-2</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ref="O14" si="231">MAX(N14-O$2*$E14,0)</f>
-        <v>1.3664171574206928E-2</v>
+        <v>1.3894445286048851E-2</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="38"/>
-        <v>1.3669639429978918E-2</v>
+        <v>1.4003673942802714E-2</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" ref="Q14" si="232">MAX(P14-Q$2*$E14,0)</f>
-        <v>1.3669639429978918E-2</v>
+        <v>1.4003673942802714E-2</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="39"/>
-        <v>1.3675109473768423E-2</v>
+        <v>1.4113761280792904E-2</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" ref="S14" si="233">MAX(R14-S$2*$E14,0)</f>
-        <v>1.3675109473768423E-2</v>
+        <v>1.4113761280792904E-2</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="40"/>
-        <v>1.3680581706451009E-2</v>
+        <v>1.4224714050385915E-2</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" ref="U14" si="234">MAX(T14-U$2*$E14,0)</f>
-        <v>1.3680581706451009E-2</v>
+        <v>1.4224714050385915E-2</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="41"/>
-        <v>1.3686056128902573E-2</v>
+        <v>1.4323472618246166E-2</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" ref="W14" si="235">MAX(V14-W$2*$E14,0)</f>
-        <v>1.3686056128902573E-2</v>
+        <v>1.4323472618246166E-2</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="42"/>
-        <v>1.3691532741999364E-2</v>
+        <v>1.4407033412035974E-2</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" ref="Y14" si="236">MAX(X14-Y$2*$E14,0)</f>
-        <v>1.3691532741999364E-2</v>
+        <v>1.4407033412035974E-2</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" si="43"/>
-        <v>1.3697011546618018E-2</v>
+        <v>1.446681622573533E-2</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ref="AA14:AY14" si="237">MAX(Z14-AA$2*$E14,0)</f>
-        <v>1.3697011546618018E-2</v>
+        <v>1.446681622573533E-2</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="44"/>
-        <v>1.3702492543635472E-2</v>
+        <v>1.449871339520478E-2</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3702492543635472E-2</v>
+        <v>1.449871339520478E-2</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ref="AD14" si="238">AC14/AD$2</f>
-        <v>1.3707975733929043E-2</v>
+        <v>1.4530680893169751E-2</v>
       </c>
       <c r="AE14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3707975733929043E-2</v>
+        <v>1.4530680893169751E-2</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" ref="AF14" si="239">AE14/AF$2</f>
-        <v>1.371346111837639E-2</v>
+        <v>1.4562718874694078E-2</v>
       </c>
       <c r="AG14" s="8">
         <f t="shared" si="237"/>
-        <v>1.371346111837639E-2</v>
+        <v>1.4562718874694078E-2</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" ref="AH14" si="240">AG14/AH$2</f>
-        <v>1.3718948697855534E-2</v>
+        <v>1.4594827495183484E-2</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3718948697855534E-2</v>
+        <v>1.4594827495183484E-2</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" ref="AJ14" si="241">AI14/AJ$2</f>
-        <v>1.3724438473244838E-2</v>
+        <v>1.4627006910386337E-2</v>
       </c>
       <c r="AK14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3724438473244838E-2</v>
+        <v>1.4627006910386337E-2</v>
       </c>
       <c r="AL14" s="8">
         <f t="shared" ref="AL14" si="242">AK14/AL$2</f>
-        <v>1.3729930445422998E-2</v>
+        <v>1.4659257276394402E-2</v>
       </c>
       <c r="AM14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3729930445422998E-2</v>
+        <v>1.4659257276394402E-2</v>
       </c>
       <c r="AN14" s="8">
         <f t="shared" ref="AN14" si="243">AM14/AN$2</f>
-        <v>1.3735424615269103E-2</v>
+        <v>1.469157874964362E-2</v>
       </c>
       <c r="AO14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3735424615269103E-2</v>
+        <v>1.469157874964362E-2</v>
       </c>
       <c r="AP14" s="8">
         <f t="shared" ref="AP14" si="244">AO14/AP$2</f>
-        <v>1.3740920983662577E-2</v>
+        <v>1.4723971486914832E-2</v>
       </c>
       <c r="AQ14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3740920983662577E-2</v>
+        <v>1.4723971486914832E-2</v>
       </c>
       <c r="AR14" s="8">
         <f t="shared" ref="AR14" si="245">AQ14/AR$2</f>
-        <v>1.3746419551483166E-2</v>
+        <v>1.4756435645334569E-2</v>
       </c>
       <c r="AS14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3746419551483166E-2</v>
+        <v>1.4756435645334569E-2</v>
       </c>
       <c r="AT14" s="8">
         <f t="shared" ref="AT14" si="246">AS14/AT$2</f>
-        <v>1.375192031961101E-2</v>
+        <v>1.4788971382375792E-2</v>
       </c>
       <c r="AU14" s="8">
         <f t="shared" si="237"/>
-        <v>1.375192031961101E-2</v>
+        <v>1.4788971382375792E-2</v>
       </c>
       <c r="AV14" s="8">
         <f t="shared" ref="AV14" si="247">AU14/AV$2</f>
-        <v>1.3757423288926584E-2</v>
+        <v>1.4821578855858683E-2</v>
       </c>
       <c r="AW14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3757423288926584E-2</v>
+        <v>1.4821578855858683E-2</v>
       </c>
       <c r="AX14" s="8">
         <f t="shared" ref="AX14" si="248">AW14/AX$2</f>
-        <v>1.3762928460310709E-2</v>
+        <v>1.4854258223951377E-2</v>
       </c>
       <c r="AY14" s="8">
         <f t="shared" si="237"/>
-        <v>1.3762928460310709E-2</v>
+        <v>1.4854258223951377E-2</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
@@ -9523,179 +9530,179 @@
       </c>
       <c r="H15" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ref="O15" si="249">MAX(N15-O$2*$E15,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" ref="Q15" si="250">MAX(P15-Q$2*$E15,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" ref="S15" si="251">MAX(R15-S$2*$E15,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" ref="U15" si="252">MAX(T15-U$2*$E15,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" ref="W15" si="253">MAX(V15-W$2*$E15,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" ref="Y15" si="254">MAX(X15-Y$2*$E15,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ref="AA15:AY15" si="255">MAX(Z15-AA$2*$E15,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ref="AD15" si="256">AC15/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AE15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" ref="AF15" si="257">AE15/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AG15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" ref="AH15" si="258">AG15/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" ref="AJ15" si="259">AI15/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AK15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AL15" s="8">
         <f t="shared" ref="AL15" si="260">AK15/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AM15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AN15" s="8">
         <f t="shared" ref="AN15" si="261">AM15/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AO15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AP15" s="8">
         <f t="shared" ref="AP15" si="262">AO15/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AQ15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AR15" s="8">
         <f t="shared" ref="AR15" si="263">AQ15/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AS15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AT15" s="8">
         <f t="shared" ref="AT15" si="264">AS15/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AU15" s="8">
         <f t="shared" si="255"/>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AV15" s="8">
         <f t="shared" ref="AV15" si="265">AU15/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AW15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AX15" s="8">
         <f t="shared" ref="AX15" si="266">AW15/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
       <c r="AY15" s="8">
         <f t="shared" si="255"/>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
@@ -9724,179 +9731,179 @@
       </c>
       <c r="H16" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ref="O16" si="267">MAX(N16-O$2*$E16,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" ref="Q16" si="268">MAX(P16-Q$2*$E16,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" ref="S16" si="269">MAX(R16-S$2*$E16,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" ref="U16" si="270">MAX(T16-U$2*$E16,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" ref="W16" si="271">MAX(V16-W$2*$E16,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" ref="Y16" si="272">MAX(X16-Y$2*$E16,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ref="AA16:AY16" si="273">MAX(Z16-AA$2*$E16,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ref="AD16" si="274">AC16/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AE16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" ref="AF16" si="275">AE16/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AG16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" ref="AH16" si="276">AG16/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" ref="AJ16" si="277">AI16/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AK16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AL16" s="8">
         <f t="shared" ref="AL16" si="278">AK16/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AM16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AN16" s="8">
         <f t="shared" ref="AN16" si="279">AM16/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AO16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AP16" s="8">
         <f t="shared" ref="AP16" si="280">AO16/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AQ16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AR16" s="8">
         <f t="shared" ref="AR16" si="281">AQ16/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AS16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AT16" s="8">
         <f t="shared" ref="AT16" si="282">AS16/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AU16" s="8">
         <f t="shared" si="273"/>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AV16" s="8">
         <f t="shared" ref="AV16" si="283">AU16/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AW16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AX16" s="8">
         <f t="shared" ref="AX16" si="284">AW16/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
       <c r="AY16" s="8">
         <f t="shared" si="273"/>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.3">
@@ -9925,179 +9932,179 @@
       </c>
       <c r="H17" s="8">
         <f t="shared" si="33"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="34"/>
-        <v>2.275426626848976E-3</v>
+        <v>2.277533450632E-3</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="35"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="68"/>
-        <v>2.2755404038691694E-3</v>
+        <v>2.2797562129396164E-3</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="36"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="68"/>
-        <v>2.2764509842628754E-3</v>
+        <v>2.2976781021362791E-3</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="37"/>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ref="O17" si="285">MAX(N17-O$2*$E17,0)</f>
-        <v>2.2773619290344881E-3</v>
+        <v>2.315740881008142E-3</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="38"/>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" ref="Q17" si="286">MAX(P17-Q$2*$E17,0)</f>
-        <v>2.2782732383298198E-3</v>
+        <v>2.3339456571337858E-3</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="39"/>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" ref="S17" si="287">MAX(R17-S$2*$E17,0)</f>
-        <v>2.2791849122947372E-3</v>
+        <v>2.3522935467988173E-3</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="40"/>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" ref="U17" si="288">MAX(T17-U$2*$E17,0)</f>
-        <v>2.2800969510751684E-3</v>
+        <v>2.3707856750643194E-3</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="41"/>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" ref="W17" si="289">MAX(V17-W$2*$E17,0)</f>
-        <v>2.2810093548170955E-3</v>
+        <v>2.3872454363743612E-3</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="42"/>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" ref="Y17" si="290">MAX(X17-Y$2*$E17,0)</f>
-        <v>2.2819221236665605E-3</v>
+        <v>2.4011722353393292E-3</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" si="43"/>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ref="AA17:AY17" si="291">MAX(Z17-AA$2*$E17,0)</f>
-        <v>2.2828352577696697E-3</v>
+        <v>2.4111360376225552E-3</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="44"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2837487572725788E-3</v>
+        <v>2.4164522325341303E-3</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ref="AD17" si="292">AC17/AD$2</f>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AE17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2846626223215075E-3</v>
+        <v>2.4217801488616254E-3</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" ref="AF17" si="293">AE17/AF$2</f>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AG17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2855768530627321E-3</v>
+        <v>2.4271198124490136E-3</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" ref="AH17" si="294">AG17/AH$2</f>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2864914496425891E-3</v>
+        <v>2.4324712491972478E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" ref="AJ17" si="295">AI17/AJ$2</f>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AK17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2874064122074731E-3</v>
+        <v>2.43783448506439E-3</v>
       </c>
       <c r="AL17" s="8">
         <f t="shared" ref="AL17" si="296">AK17/AL$2</f>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AM17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2883217409038334E-3</v>
+        <v>2.4432095460657343E-3</v>
       </c>
       <c r="AN17" s="8">
         <f t="shared" ref="AN17" si="297">AM17/AN$2</f>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AO17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2892374358781842E-3</v>
+        <v>2.4485964582739374E-3</v>
       </c>
       <c r="AP17" s="8">
         <f t="shared" ref="AP17" si="298">AO17/AP$2</f>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AQ17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2901534972770963E-3</v>
+        <v>2.4539952478191394E-3</v>
       </c>
       <c r="AR17" s="8">
         <f t="shared" ref="AR17" si="299">AQ17/AR$2</f>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AS17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2910699252471946E-3</v>
+        <v>2.4594059408890958E-3</v>
       </c>
       <c r="AT17" s="8">
         <f t="shared" ref="AT17" si="300">AS17/AT$2</f>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AU17" s="8">
         <f t="shared" si="291"/>
-        <v>2.291986719935169E-3</v>
+        <v>2.4648285637292999E-3</v>
       </c>
       <c r="AV17" s="8">
         <f t="shared" ref="AV17" si="301">AU17/AV$2</f>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AW17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2929038814877645E-3</v>
+        <v>2.4702631426431151E-3</v>
       </c>
       <c r="AX17" s="8">
         <f t="shared" ref="AX17" si="302">AW17/AX$2</f>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
       <c r="AY17" s="8">
         <f t="shared" si="291"/>
-        <v>2.2938214100517852E-3</v>
+        <v>2.4757097039918973E-3</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.3">
@@ -10186,10 +10193,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10202,21 +10209,21 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F1">
         <f>SQRT(SUMPRODUCT(F$4:F$17,F$4:F$17))</f>
-        <v>1.3294735800308335</v>
+        <v>0.37080992435478316</v>
       </c>
       <c r="U1" s="9"/>
       <c r="W1" s="9"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
         <f>SUM(C4:C17)</f>
@@ -10224,55 +10231,55 @@
       </c>
       <c r="F2">
         <f>SUM(F4:F17)</f>
-        <v>3.9499999999999993</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="H2">
         <f>SUMPRODUCT(G$4:G$17,E$4:E$17)</f>
-        <v>0.11272879134805092</v>
+        <v>8.8212129167760611E-2</v>
       </c>
       <c r="I2">
         <f>SUMPRODUCT(H$4:H$17,G$4:G$17)</f>
-        <v>-5.5433635584278005E-4</v>
+        <v>-0.2372316578144878</v>
       </c>
       <c r="K2" s="7">
         <f>MIN(I4:J17)</f>
-        <v>3.0883502736512886E-2</v>
+        <v>3.6801132342533627E-2</v>
       </c>
       <c r="L2">
         <f>SUM(L4:L17)</f>
-        <v>0.62025316455696222</v>
+        <v>0.23076923076923084</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="8"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="7">
         <f>MIN(O4:P17)</f>
-        <v>3.5079528122762799E-2</v>
+        <v>0.13722334004024148</v>
       </c>
       <c r="R2">
         <f>SUM(R4:R17)</f>
-        <v>0.46938775510204089</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="8"/>
       <c r="V2" s="2"/>
       <c r="W2" s="7">
         <f>MIN(U4:V17)</f>
-        <v>0.16516157110216503</v>
+        <v>17.637500000000006</v>
       </c>
       <c r="X2">
         <f>SUM(X4:X17)</f>
-        <v>0.82608695652173902</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="7">
+      <c r="AC2" s="7" t="e">
         <f>MIN(AA4:AB17)</f>
-        <v>3.6201084566906162E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>149</v>
       </c>
@@ -10355,7 +10362,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10374,19 +10381,19 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F17" si="0">MAX($B$2-$D4,0)</f>
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="G4">
         <f>F4/F$2</f>
-        <v>0.1645569620253165</v>
+        <v>0.38461538461538453</v>
       </c>
       <c r="H4">
         <f>E4-$G4</f>
-        <v>-0.15090508489221069</v>
+        <v>-0.37096350748227874</v>
       </c>
       <c r="I4">
         <f>IF(H4&lt;0,-E4/H4,"missing")</f>
-        <v>9.0466647580876011E-2</v>
+        <v>3.6801132342533627E-2</v>
       </c>
       <c r="J4" t="str">
         <f>IF(H4&gt;0,(1-E4)/H4,"missing")</f>
@@ -10394,23 +10401,23 @@
       </c>
       <c r="K4">
         <f>E4+K$2*H4</f>
-        <v>8.9913995308835044E-3</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <f>IF(K4&gt;0,G4,0)</f>
-        <v>0.1645569620253165</v>
+        <v>0</v>
       </c>
       <c r="M4" s="10">
         <f>L4/L$2</f>
-        <v>0.26530612244897955</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10">
         <f>K4-M4</f>
-        <v>-0.25631472291809604</v>
-      </c>
-      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
         <f>IF(N4&lt;0,-K4/N4,"missing")</f>
-        <v>3.5079528122762799E-2</v>
+        <v>missing</v>
       </c>
       <c r="P4" t="str">
         <f>IF(N4&gt;0,(1-K4)/N4,"missing")</f>
@@ -10448,28 +10455,36 @@
         <f>IF(W4&gt;0,S4,0)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="10" t="e">
         <f>X4/X$2</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z4" s="10" t="e">
         <f>W4-Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" t="e">
         <f>IF(Z4&lt;0,-W4/Z4,"missing")</f>
-        <v>missing</v>
-      </c>
-      <c r="AB4" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" t="e">
         <f>IF(Z4&gt;0,(1-W4)/Z4,"missing")</f>
-        <v>missing</v>
-      </c>
-      <c r="AC4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" t="e">
         <f>W4+AC$2*Z4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD4">
+        <f>Q4*$F4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <f>W4*$F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -10488,19 +10503,19 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="G5">
         <f>F5/F$2</f>
-        <v>0.1645569620253165</v>
+        <v>0.38461538461538453</v>
       </c>
       <c r="H5">
         <f>E5-$G5</f>
-        <v>-0.15090508489221069</v>
+        <v>-0.37096350748227874</v>
       </c>
       <c r="I5">
         <f>IF(H5&lt;0,-E5/H5,"missing")</f>
-        <v>9.0466647580876011E-2</v>
+        <v>3.6801132342533627E-2</v>
       </c>
       <c r="J5" t="str">
         <f>IF(H5&gt;0,(1-E5)/H5,"missing")</f>
@@ -10508,23 +10523,23 @@
       </c>
       <c r="K5">
         <f>E5+K$2*H5</f>
-        <v>8.9913995308835044E-3</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L17" si="1">IF(K5&gt;0,G5,0)</f>
-        <v>0.1645569620253165</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ref="M5:M17" si="2">L5/L$2</f>
-        <v>0.26530612244897955</v>
+        <v>0</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ref="N5:N17" si="3">K5-M5</f>
-        <v>-0.25631472291809604</v>
-      </c>
-      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" ref="O5:O19" si="4">IF(N5&lt;0,-K5/N5,"missing")</f>
-        <v>3.5079528122762799E-2</v>
+        <v>missing</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" ref="P5:P19" si="5">IF(N5&gt;0,(1-K5)/N5,"missing")</f>
@@ -10562,28 +10577,36 @@
         <f t="shared" ref="X5:X17" si="11">IF(W5&gt;0,S5,0)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="10" t="e">
         <f t="shared" ref="Y5:Y17" si="12">X5/X$2</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z5" s="10" t="e">
         <f t="shared" ref="Z5:Z17" si="13">W5-Y5</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" t="e">
         <f t="shared" ref="AA5:AA17" si="14">IF(Z5&lt;0,-W5/Z5,"missing")</f>
-        <v>missing</v>
-      </c>
-      <c r="AB5" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" t="e">
         <f t="shared" ref="AB5:AB19" si="15">IF(Z5&gt;0,(1-W5)/Z5,"missing")</f>
-        <v>missing</v>
-      </c>
-      <c r="AC5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" t="e">
         <f>W5+AC$2*Z5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AE17" si="16">Q5*$F5</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE17" si="17">W5*$F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -10602,19 +10625,19 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="G6">
         <f>F6/F$2</f>
-        <v>0.12658227848101269</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="H6">
         <f>E6-$G6</f>
-        <v>-4.353335925461907E-2</v>
+        <v>-7.079723461976023E-2</v>
       </c>
       <c r="I6">
         <f>IF(H6&lt;0,-E6/H6,"missing")</f>
-        <v>1.9077075752563659</v>
+        <v>1.1730531520395546</v>
       </c>
       <c r="J6" t="str">
         <f>IF(H6&gt;0,(1-E6)/H6,"missing")</f>
@@ -10622,23 +10645,23 @@
       </c>
       <c r="K6">
         <f>E6+K$2*H6</f>
-        <v>8.1704456606723999E-2</v>
+        <v>8.0443500825666425E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.12658227848101269</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>0.20408163265306123</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="N6" s="10">
         <f t="shared" si="3"/>
-        <v>-0.12237717604633723</v>
+        <v>-0.58622316584100009</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>0.6676445661386009</v>
+        <v>0.13722334004024148</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="5"/>
@@ -10646,23 +10669,23 @@
       </c>
       <c r="Q6">
         <f>K6+Q$2*N6</f>
-        <v>7.7411523018022219E-2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
-        <v>0.20408163265306123</v>
+        <v>0</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="7"/>
-        <v>0.43478260869565211</v>
+        <v>0</v>
       </c>
       <c r="T6" s="10">
         <f t="shared" si="8"/>
-        <v>-0.35737108567762987</v>
-      </c>
-      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="str">
         <f t="shared" si="9"/>
-        <v>0.21661383956465927</v>
+        <v>missing</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="10"/>
@@ -10670,34 +10693,46 @@
       </c>
       <c r="W6">
         <f>Q6+W$2*T6</f>
-        <v>1.838755304101844E-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" si="11"/>
-        <v>0.43478260869565211</v>
-      </c>
-      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="Z6" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z6" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>-0.50792823643266571</v>
-      </c>
-      <c r="AA6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" t="e">
         <f t="shared" si="14"/>
-        <v>3.6201084566906162E-2</v>
-      </c>
-      <c r="AB6" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" t="e">
         <f>W6+AC$2*Z6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <f>AE6-AD6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -10716,15 +10751,15 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.45000000000000007</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="G7">
         <f>F7/F$2</f>
-        <v>0.11392405063291143</v>
+        <v>7.6923076923076969E-2</v>
       </c>
       <c r="H7">
         <f>E7-$G7</f>
-        <v>0.7302170187641307</v>
+        <v>0.76721799247396516</v>
       </c>
       <c r="I7" t="str">
         <f>IF(H7&lt;0,-E7/H7,"missing")</f>
@@ -10732,23 +10767,23 @@
       </c>
       <c r="J7">
         <f>IF(H7&gt;0,(1-E7)/H7,"missing")</f>
-        <v>0.21344193109432616</v>
+        <v>0.2031481692711303</v>
       </c>
       <c r="K7">
         <f>E7+K$2*H7</f>
-        <v>0.86669272869429248</v>
+        <v>0.87237556027364949</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0.11392405063291143</v>
+        <v>7.6923076923076969E-2</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>0.18367346938775511</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="N7" s="10">
         <f t="shared" si="3"/>
-        <v>0.6830192593065374</v>
+        <v>0.53904222694031612</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
@@ -10756,62 +10791,74 @@
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
-        <v>0.19517351742182651</v>
+        <v>0.23676148796498897</v>
       </c>
       <c r="Q7">
         <f>K7+Q$2*N7</f>
-        <v>0.89065272200952472</v>
+        <v>0.94634473507712946</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
-        <v>0.18367346938775511</v>
+        <v>0.33333333333333343</v>
       </c>
       <c r="S7" s="10">
         <f t="shared" si="7"/>
-        <v>0.39130434782608692</v>
+        <v>1</v>
       </c>
       <c r="T7" s="10">
         <f t="shared" si="8"/>
-        <v>0.4993483741834378</v>
-      </c>
-      <c r="U7" t="str">
+        <v>-5.3655264922870538E-2</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="9"/>
+        <v>17.637500000000006</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="10"/>
         <v>missing</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="10"/>
-        <v>0.21897994194791567</v>
       </c>
       <c r="W7">
         <f>Q7+W$2*T7</f>
-        <v>0.97312588401697309</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" si="11"/>
-        <v>0.39130434782608692</v>
-      </c>
-      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0.47368421052631582</v>
-      </c>
-      <c r="Z7" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0.49944167349065727</v>
-      </c>
-      <c r="AA7" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA7" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" t="e">
         <f t="shared" si="15"/>
-        <v>5.3808317185869814E-2</v>
-      </c>
-      <c r="AC7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC7" t="e">
         <f>W7+AC$2*Z7</f>
-        <v>0.99120621427524547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="16"/>
+        <v>4.7317236753856518E-2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f>AE7-AD7</f>
+        <v>-4.7317236753856518E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -10830,27 +10877,27 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>F8/F$2</f>
-        <v>7.5949367088607625E-2</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f>E8-$G8</f>
-        <v>-7.3674054233089994E-2</v>
-      </c>
-      <c r="I8">
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="I8" t="str">
         <f>IF(H8&lt;0,-E8/H8,"missing")</f>
-        <v>3.0883502736512886E-2</v>
-      </c>
-      <c r="J8" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J8">
         <f>IF(H8&gt;0,(1-E8)/H8,"missing")</f>
-        <v>missing</v>
+        <v>438.5</v>
       </c>
       <c r="K8">
         <f>E8+K$2*H8</f>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -10862,19 +10909,19 @@
       </c>
       <c r="N8" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
         <v>missing</v>
       </c>
-      <c r="P8" t="str">
+      <c r="P8">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q8">
         <f>K8+Q$2*N8</f>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
@@ -10886,46 +10933,54 @@
       </c>
       <c r="T8" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="9"/>
         <v>missing</v>
       </c>
-      <c r="V8" t="str">
+      <c r="V8">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>371.75</v>
       </c>
       <c r="W8">
         <f>Q8+W$2*T8</f>
-        <v>0</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Y8" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA8" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB8" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC8">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC8" t="e">
         <f>W8+AC$2*Z8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10944,27 +10999,27 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>F9/F$2</f>
-        <v>7.5949367088607625E-2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f>E9-$G9</f>
-        <v>-7.3674054233089994E-2</v>
-      </c>
-      <c r="I9">
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="I9" t="str">
         <f>IF(H9&lt;0,-E9/H9,"missing")</f>
-        <v>3.0883502736512886E-2</v>
-      </c>
-      <c r="J9" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J9">
         <f>IF(H9&gt;0,(1-E9)/H9,"missing")</f>
-        <v>missing</v>
+        <v>438.5</v>
       </c>
       <c r="K9">
         <f>E9+K$2*H9</f>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
@@ -10976,19 +11031,19 @@
       </c>
       <c r="N9" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
         <v>missing</v>
       </c>
-      <c r="P9" t="str">
+      <c r="P9">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q9">
         <f>K9+Q$2*N9</f>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
@@ -11000,46 +11055,54 @@
       </c>
       <c r="T9" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="9"/>
         <v>missing</v>
       </c>
-      <c r="V9" t="str">
+      <c r="V9">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>371.75</v>
       </c>
       <c r="W9">
         <f>Q9+W$2*T9</f>
-        <v>0</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA9" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB9" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC9">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC9" t="e">
         <f>W9+AC$2*Z9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11058,27 +11121,27 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f>F10/F$2</f>
-        <v>7.5949367088607625E-2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f>E10-$G10</f>
-        <v>-7.3674054233089994E-2</v>
-      </c>
-      <c r="I10">
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="I10" t="str">
         <f>IF(H10&lt;0,-E10/H10,"missing")</f>
-        <v>3.0883502736512886E-2</v>
-      </c>
-      <c r="J10" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J10">
         <f>IF(H10&gt;0,(1-E10)/H10,"missing")</f>
-        <v>missing</v>
+        <v>438.5</v>
       </c>
       <c r="K10">
         <f>E10+K$2*H10</f>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -11090,19 +11153,19 @@
       </c>
       <c r="N10" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
         <v>missing</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q10">
         <f>K10+Q$2*N10</f>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
@@ -11114,46 +11177,54 @@
       </c>
       <c r="T10" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="9"/>
         <v>missing</v>
       </c>
-      <c r="V10" t="str">
+      <c r="V10">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>371.75</v>
       </c>
       <c r="W10">
         <f>Q10+W$2*T10</f>
-        <v>0</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Y10" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA10" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB10" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" t="e">
         <f>W10+AC$2*Z10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11172,27 +11243,27 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f>F11/F$2</f>
-        <v>7.5949367088607625E-2</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f>E11-$G11</f>
-        <v>-7.3674054233089994E-2</v>
-      </c>
-      <c r="I11">
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="I11" t="str">
         <f>IF(H11&lt;0,-E11/H11,"missing")</f>
-        <v>3.0883502736512886E-2</v>
-      </c>
-      <c r="J11" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J11">
         <f>IF(H11&gt;0,(1-E11)/H11,"missing")</f>
-        <v>missing</v>
+        <v>438.5</v>
       </c>
       <c r="K11">
         <f>E11+K$2*H11</f>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -11204,19 +11275,19 @@
       </c>
       <c r="N11" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
         <v>missing</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q11">
         <f>K11+Q$2*N11</f>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
@@ -11228,46 +11299,54 @@
       </c>
       <c r="T11" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="9"/>
         <v>missing</v>
       </c>
-      <c r="V11" t="str">
+      <c r="V11">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>371.75</v>
       </c>
       <c r="W11">
         <f>Q11+W$2*T11</f>
-        <v>0</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB11" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC11" t="e">
         <f>W11+AC$2*Z11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>23</v>
       </c>
@@ -11286,27 +11365,27 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f>F12/F$2</f>
-        <v>7.5949367088607625E-2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f>E12-$G12</f>
-        <v>-7.3674054233089994E-2</v>
-      </c>
-      <c r="I12">
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="I12" t="str">
         <f>IF(H12&lt;0,-E12/H12,"missing")</f>
-        <v>3.0883502736512886E-2</v>
-      </c>
-      <c r="J12" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J12">
         <f>IF(H12&gt;0,(1-E12)/H12,"missing")</f>
-        <v>missing</v>
+        <v>438.5</v>
       </c>
       <c r="K12">
         <f>E12+K$2*H12</f>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -11318,19 +11397,19 @@
       </c>
       <c r="N12" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
         <v>missing</v>
       </c>
-      <c r="P12" t="str">
+      <c r="P12">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q12">
         <f>K12+Q$2*N12</f>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
@@ -11342,46 +11421,54 @@
       </c>
       <c r="T12" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="9"/>
         <v>missing</v>
       </c>
-      <c r="V12" t="str">
+      <c r="V12">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>371.75</v>
       </c>
       <c r="W12">
         <f>Q12+W$2*T12</f>
-        <v>0</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Y12" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB12" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC12">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC12" t="e">
         <f>W12+AC$2*Z12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11400,102 +11487,114 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>F13/F$2</f>
-        <v>2.5316455696202559E-2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f>E13-$G13</f>
-        <v>-1.1664578563096757E-2</v>
-      </c>
-      <c r="I13">
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="I13" t="str">
         <f>IF(H13&lt;0,-E13/H13,"missing")</f>
-        <v>1.1703703703703676</v>
-      </c>
-      <c r="J13" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J13">
         <f>IF(H13&gt;0,(1-E13)/H13,"missing")</f>
-        <v>missing</v>
+        <v>72.25</v>
       </c>
       <c r="K13">
         <f>E13+K$2*H13</f>
-        <v>1.3291634089132134E-2</v>
+        <v>1.4154281670205238E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>2.5316455696202559E-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="2"/>
-        <v>4.0816326530612276E-2</v>
+        <v>0</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>-2.7524692441480141E-2</v>
-      </c>
-      <c r="O13">
+        <v>1.4154281670205238E-2</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>0.48289855072463711</v>
-      </c>
-      <c r="P13" t="str">
+        <v>missing</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>69.649999999999991</v>
       </c>
       <c r="Q13">
         <f>K13+Q$2*N13</f>
-        <v>1.2326080866560835E-2</v>
+        <v>1.6096579476861168E-2</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>4.0816326530612276E-2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="7"/>
-        <v>8.6956521739130488E-2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="10">
         <f t="shared" si="8"/>
-        <v>-7.4630440872569648E-2</v>
-      </c>
-      <c r="U13">
+        <v>1.6096579476861168E-2</v>
+      </c>
+      <c r="U13" t="str">
         <f t="shared" si="9"/>
-        <v>0.16516157110216503</v>
-      </c>
-      <c r="V13" t="str">
+        <v>missing</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>61.124999999999993</v>
       </c>
       <c r="W13">
         <f>Q13+W$2*T13</f>
-        <v>0</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="X13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Y13" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z13" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB13" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC13" t="e">
         <f>W13+AC$2*Z13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>AE13-AD13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11514,102 +11613,114 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.10000000000000009</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f>F14/F$2</f>
-        <v>2.5316455696202559E-2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f>E14-$G14</f>
-        <v>-1.1664578563096757E-2</v>
-      </c>
-      <c r="I14">
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="I14" t="str">
         <f>IF(H14&lt;0,-E14/H14,"missing")</f>
-        <v>1.1703703703703676</v>
-      </c>
-      <c r="J14" t="str">
+        <v>missing</v>
+      </c>
+      <c r="J14">
         <f>IF(H14&gt;0,(1-E14)/H14,"missing")</f>
-        <v>missing</v>
+        <v>72.25</v>
       </c>
       <c r="K14">
         <f>E14+K$2*H14</f>
-        <v>1.3291634089132134E-2</v>
+        <v>1.4154281670205238E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>2.5316455696202559E-2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="10">
         <f t="shared" si="2"/>
-        <v>4.0816326530612276E-2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="3"/>
-        <v>-2.7524692441480141E-2</v>
-      </c>
-      <c r="O14">
+        <v>1.4154281670205238E-2</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>0.48289855072463711</v>
-      </c>
-      <c r="P14" t="str">
+        <v>missing</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="5"/>
-        <v>missing</v>
+        <v>69.649999999999991</v>
       </c>
       <c r="Q14">
         <f>K14+Q$2*N14</f>
-        <v>1.2326080866560835E-2</v>
+        <v>1.6096579476861168E-2</v>
       </c>
       <c r="R14">
         <f t="shared" si="6"/>
-        <v>4.0816326530612276E-2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="10">
         <f t="shared" si="7"/>
-        <v>8.6956521739130488E-2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="10">
         <f t="shared" si="8"/>
-        <v>-7.4630440872569648E-2</v>
-      </c>
-      <c r="U14">
+        <v>1.6096579476861168E-2</v>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="9"/>
-        <v>0.16516157110216503</v>
-      </c>
-      <c r="V14" t="str">
+        <v>missing</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="10"/>
-        <v>missing</v>
+        <v>61.124999999999993</v>
       </c>
       <c r="W14">
         <f>Q14+W$2*T14</f>
-        <v>0</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="X14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Y14" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z14" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA14" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB14" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" t="e">
         <f t="shared" si="15"/>
-        <v>missing</v>
-      </c>
-      <c r="AC14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC14" t="e">
         <f>W14+AC$2*Z14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f>AE14-AD14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -11648,7 +11759,7 @@
       </c>
       <c r="K15">
         <f>E15+K$2*H15</f>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -11660,7 +11771,7 @@
       </c>
       <c r="N15" s="10">
         <f t="shared" si="3"/>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
@@ -11668,11 +11779,11 @@
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>425.33333333333337</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q15">
         <f>K15+Q$2*N15</f>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R15">
         <f t="shared" si="6"/>
@@ -11684,7 +11795,7 @@
       </c>
       <c r="T15" s="10">
         <f t="shared" si="8"/>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="9"/>
@@ -11692,38 +11803,46 @@
       </c>
       <c r="V15">
         <f t="shared" si="10"/>
-        <v>410.88461538461536</v>
+        <v>371.75</v>
       </c>
       <c r="W15">
         <f>Q15+W$2*T15</f>
-        <v>2.8288543140028285E-3</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X15">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z15" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>2.8288543140028285E-3</v>
-      </c>
-      <c r="AA15" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA15" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" t="e">
         <f t="shared" si="15"/>
-        <v>352.50000000000006</v>
-      </c>
-      <c r="AC15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC15" t="e">
         <f>W15+AC$2*Z15</f>
-        <v>2.9312619082515023E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -11762,7 +11881,7 @@
       </c>
       <c r="K16">
         <f>E16+K$2*H16</f>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -11774,7 +11893,7 @@
       </c>
       <c r="N16" s="10">
         <f t="shared" si="3"/>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
@@ -11782,11 +11901,11 @@
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
-        <v>425.33333333333337</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q16">
         <f>K16+Q$2*N16</f>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
@@ -11798,7 +11917,7 @@
       </c>
       <c r="T16" s="10">
         <f t="shared" si="8"/>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" si="9"/>
@@ -11806,38 +11925,46 @@
       </c>
       <c r="V16">
         <f t="shared" si="10"/>
-        <v>410.88461538461536</v>
+        <v>371.75</v>
       </c>
       <c r="W16">
         <f>Q16+W$2*T16</f>
-        <v>2.8288543140028285E-3</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>2.8288543140028285E-3</v>
-      </c>
-      <c r="AA16" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA16" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" t="e">
         <f t="shared" si="15"/>
-        <v>352.50000000000006</v>
-      </c>
-      <c r="AC16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC16" t="e">
         <f>W16+AC$2*Z16</f>
-        <v>2.9312619082515023E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>22</v>
       </c>
@@ -11876,7 +12003,7 @@
       </c>
       <c r="K17">
         <f>E17+K$2*H17</f>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -11888,7 +12015,7 @@
       </c>
       <c r="N17" s="10">
         <f t="shared" si="3"/>
-        <v>2.3455824863174352E-3</v>
+        <v>2.3590469450342059E-3</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
@@ -11896,11 +12023,11 @@
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
-        <v>425.33333333333337</v>
+        <v>422.90000000000003</v>
       </c>
       <c r="Q17">
         <f>K17+Q$2*N17</f>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="R17">
         <f t="shared" si="6"/>
@@ -11912,7 +12039,7 @@
       </c>
       <c r="T17" s="10">
         <f t="shared" si="8"/>
-        <v>2.4278644131104678E-3</v>
+        <v>2.6827632461435278E-3</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="9"/>
@@ -11920,38 +12047,46 @@
       </c>
       <c r="V17">
         <f t="shared" si="10"/>
-        <v>410.88461538461536</v>
+        <v>371.75</v>
       </c>
       <c r="W17">
         <f>Q17+W$2*T17</f>
-        <v>2.8288543140028285E-3</v>
+        <v>5.0000000000000017E-2</v>
       </c>
       <c r="X17">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="10" t="e">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z17" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>2.8288543140028285E-3</v>
-      </c>
-      <c r="AA17" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA17" t="e">
         <f t="shared" si="14"/>
-        <v>missing</v>
-      </c>
-      <c r="AB17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" t="e">
         <f t="shared" si="15"/>
-        <v>352.50000000000006</v>
-      </c>
-      <c r="AC17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC17" t="e">
         <f>W17+AC$2*Z17</f>
-        <v>2.9312619082515023E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>161</v>
       </c>
@@ -11971,68 +12106,68 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="E19">
         <f>SUMPRODUCT(E4:E17,$F$4:$F$17)</f>
-        <v>0.44527872582480105</v>
+        <v>5.7337883959044413E-2</v>
       </c>
       <c r="K19">
         <f>SUMPRODUCT(K4:K17,$F$4:$F$17)</f>
-        <v>0.4452111024237686</v>
+        <v>5.1663128096249157E-2</v>
       </c>
       <c r="M19" s="8"/>
       <c r="Q19">
         <f>SUMPRODUCT(Q4:Q17,$F$4:$F$17)</f>
-        <v>0.44196470258660947</v>
+        <v>4.7317236753856518E-2</v>
       </c>
       <c r="S19" s="8"/>
       <c r="W19">
         <f>SUMPRODUCT(W4:W17,$F$4:$F$17)</f>
-        <v>0.44710042432814717</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="8"/>
-      <c r="AC19">
+      <c r="AC19" t="e">
         <f>SUMPRODUCT(AC4:AC17,$F$4:$F$17)</f>
-        <v>0.44604279642386052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.3">
@@ -12043,4 +12178,506 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F1">
+        <f>SQRT(SUMPRODUCT(F$4:F$17,F$4:F$17))</f>
+        <v>0.37080992435478316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <f>SUM(C4:C17)</f>
+        <v>879</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F4:F17)</f>
+        <v>0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>8</v>
+      </c>
+      <c r="S3">
+        <v>9</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>11</v>
+      </c>
+      <c r="V3">
+        <v>12</v>
+      </c>
+      <c r="W3">
+        <v>13</v>
+      </c>
+      <c r="X3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <f>C4/C$2</f>
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F17" si="0">MAX($B$2-$D4,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <f>C5/C$2</f>
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <f>C6/C$2</f>
+        <v>8.3048919226393625E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>742</v>
+      </c>
+      <c r="D7">
+        <v>0.35</v>
+      </c>
+      <c r="E7">
+        <f>C7/C$2</f>
+        <v>0.84414106939704214</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <f>C8/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f>C9/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <f>C10/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f>C11/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.48</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <f>C12/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <f>C13/C$2</f>
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <f>C14/C$2</f>
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
+        <f>C15/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+      <c r="E16">
+        <f>C16/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1.3</v>
+      </c>
+      <c r="E17">
+        <f>C17/C$2</f>
+        <v>2.2753128555176336E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>SUMPRODUCT(E4:E17,$F$4:$F$17)</f>
+        <v>5.7337883959044413E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>